--- a/upload/file.xlsx
+++ b/upload/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>MST</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>cong ty qhuy</t>
+  </si>
+  <si>
+    <t>testmst</t>
+  </si>
+  <si>
+    <t>đss</t>
+  </si>
+  <si>
+    <t>123321321</t>
+  </si>
+  <si>
+    <t>tesst</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>huyhuy</t>
   </si>
 </sst>
 </file>
@@ -95,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,6 +219,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
